--- a/team_specific_matrix/Wis.-Stout_B.xlsx
+++ b/team_specific_matrix/Wis.-Stout_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1666666666666667</v>
+        <v>0.21875</v>
       </c>
       <c r="C2">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1666666666666667</v>
+        <v>0.15625</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08333333333333333</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7142857142857143</v>
+        <v>0.6</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1428571428571428</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.25</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="S7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,13 +852,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1052631578947368</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1052631578947368</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05263157894736842</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3157894736842105</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="R8">
-        <v>0.1578947368421053</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S8">
-        <v>0.2631578947368421</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1666666666666667</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.3333333333333333</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="R9">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1346153846153846</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.008620689655172414</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.03846153846153846</v>
+        <v>0.04310344827586207</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1153846153846154</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01923076923076923</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0.2413793103448276</v>
       </c>
       <c r="R10">
-        <v>0.1153846153846154</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="S10">
-        <v>0.3269230769230769</v>
+        <v>0.3017241379310345</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.25</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.25</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="K11">
-        <v>0.375</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L11">
-        <v>0.125</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G13">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J16">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1428571428571428</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1401,28 +1401,28 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1666666666666667</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="J17">
-        <v>0.4583333333333333</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="K17">
-        <v>0.08333333333333333</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.08333333333333333</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2083333333333333</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,22 +1460,22 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>0.09523809523809523</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1519,28 +1519,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2222222222222222</v>
+        <v>0.186046511627907</v>
       </c>
       <c r="I19">
-        <v>0.1333333333333333</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="J19">
-        <v>0.3777777777777778</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="K19">
-        <v>0.04444444444444445</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02222222222222222</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.2</v>
+        <v>0.1395348837209302</v>
       </c>
     </row>
   </sheetData>
